--- a/Num Cuts Calculations/Number of Cuts Calc.xlsx
+++ b/Num Cuts Calculations/Number of Cuts Calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knech\OneDrive\Documents\ASE6002\ModelProject\Num Cuts Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CAE563-AFE9-47DE-91A7-6E8E4D4E1DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703F21A-3FD2-404E-ACCD-C4C4E044E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29325" yWindow="2595" windowWidth="21300" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Inputs</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Motor Efficiency</t>
+  </si>
+  <si>
+    <t>-this is a matt reference</t>
   </si>
 </sst>
 </file>
@@ -320,10 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,16 +664,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -710,14 +714,14 @@
       </c>
       <c r="I2" s="2">
         <f>ROUNDDOWN(L6/L4,0)</f>
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2">
         <f>(B4*B6)</f>
-        <v>114.3</v>
+        <v>116.55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -725,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>18.742215440623902</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -738,14 +742,14 @@
       </c>
       <c r="I3">
         <f>L11</f>
-        <v>-4480.6077482710534</v>
+        <v>33.185632706152248</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="2">
         <f>(1/B7)*L2</f>
-        <v>30.45968772783322</v>
+        <v>37.364270165052893</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
@@ -769,7 +773,7 @@
       </c>
       <c r="L4">
         <f>L3*(B5/B8)*(1+(L11/100))</f>
-        <v>-300221.87415854161</v>
+        <v>23086.317351971953</v>
       </c>
       <c r="M4" t="s">
         <v>11</v>
@@ -793,7 +797,7 @@
       </c>
       <c r="L5">
         <f>B2*B3*B15</f>
-        <v>144</v>
+        <v>74.968861762495607</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -804,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>1.27</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -814,7 +818,7 @@
       </c>
       <c r="L6" s="2">
         <f>L5*60*60</f>
-        <v>518400</v>
+        <v>269887.90234498418</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -825,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>3.75250071574292</v>
+        <v>3.1192901530031798</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -839,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -866,7 +870,7 @@
       </c>
       <c r="L9">
         <f>(1000*PI()*B13*B16)/(B9*B10)</f>
-        <v>2.7485500031406764</v>
+        <v>109.94200012562703</v>
       </c>
       <c r="M9" t="s">
         <v>23</v>
@@ -887,7 +891,7 @@
       </c>
       <c r="L10">
         <f>1000*((B8*B4)/(L9*B9*B11))</f>
-        <v>171.88733853924694</v>
+        <v>2.08413397978837</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -908,7 +912,7 @@
       </c>
       <c r="L11">
         <f>(1-(L10/B7))*100</f>
-        <v>-4480.6077482710534</v>
+        <v>33.185632706152248</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
@@ -919,13 +923,16 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>125.9</v>
+        <v>73.456879999999998</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -933,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -970,9 +977,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.45">
